--- a/data/trans_bre/P53_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P53_R-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,8 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +544,16 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -576,22 +580,32 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -606,6 +620,8 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +636,52 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>5,51</t>
+          <t>14,02</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-1,6</t>
+          <t>11,71</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>4,97</t>
+          <t>6,06</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2,65</t>
+          <t>3,05</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>14,29%</t>
+          <t>23,9</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-3,51%</t>
+          <t>40,11%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>11,39%</t>
+          <t>32,33%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>5,69%</t>
+          <t>13,14%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>5,98%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>125,96%</t>
         </is>
       </c>
     </row>
@@ -668,42 +694,52 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-8,95; 19,62</t>
+          <t>-8,91; 37,89</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-19,6; 13,65</t>
+          <t>-12,29; 36,38</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-13,87; 20,42</t>
+          <t>-34,7; 29,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-18,22; 18,66</t>
+          <t>-32,25; 28,58</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-18,36; 67,16</t>
+          <t>0,22; 52,56</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-33,33; 37,26</t>
+          <t>-20,24; 177,67</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-26,84; 60,41</t>
+          <t>-26,27; 184,07</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-31,3; 51,14</t>
+          <t>-49,23; 101,53</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-48,46; 91,4</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-4,75; 742,21</t>
         </is>
       </c>
     </row>
@@ -720,42 +756,52 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>9,5</t>
+          <t>6,97</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>6,02</t>
+          <t>6,63</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>7,91</t>
+          <t>5,29</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>7,65</t>
+          <t>5,22</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>48,35%</t>
+          <t>2,09</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>27,23%</t>
+          <t>37,8%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>36,42%</t>
+          <t>33,06%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>31,81%</t>
+          <t>28,33%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>25,99%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>10,96%</t>
         </is>
       </c>
     </row>
@@ -768,42 +814,52 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,4; 18,02</t>
+          <t>-6,65; 16,39</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-5,61; 14,95</t>
+          <t>-8,6; 16,88</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-2,34; 16,47</t>
+          <t>-8,62; 15,41</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-3,66; 17,17</t>
+          <t>-9,49; 15,76</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-3,36; 123,7</t>
+          <t>-15,1; 12,19</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-19,76; 93,89</t>
+          <t>-29,47; 138,33</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-10,04; 102,4</t>
+          <t>-31,43; 130,33</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-11,09; 101,28</t>
+          <t>-35,43; 121,46</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-36,95; 120,35</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-55,03; 102,85</t>
         </is>
       </c>
     </row>
@@ -820,42 +876,52 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,75</t>
+          <t>-4,31</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
+          <t>-2,89</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>-0,54</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>2,31</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>-1,66</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>3,06</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>4,47</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-13,64%</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-18,95%</t>
+          <t>-54,31%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>53,6%</t>
+          <t>-33,01%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>79,69%</t>
+          <t>-7,15%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>42,78%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-76,52%</t>
         </is>
       </c>
     </row>
@@ -868,49 +934,59 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-7,56; 3,68</t>
+          <t>-15,25; 1,42</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-10,53; 4,33</t>
+          <t>-15,34; 3,69</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,01; 8,9</t>
+          <t>-12,08; 5,8</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,58; 10,26</t>
+          <t>-7,34; 8,48</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-82,96; 140,29</t>
+          <t>-6,28; 0,52</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-69,94; 90,98</t>
+          <t>-95,58; 53,11</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-52,4; 325,12</t>
+          <t>-88,06; 110,2</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-39,3; 375,74</t>
+          <t>-82,41; 219,0</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-81,32; 508,02</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +996,52 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>4,53</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1,15</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>5,17</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>4,9</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>25,06%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>5,25%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>25,84%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>22,22%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -968,52 +1054,190 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,07; 10,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-5,56; 7,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,22; 11,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-3,66; 11,87</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-5,62; 68,91</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-21,26; 37,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-5,64; 66,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-13,35; 67,6</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>2,32</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>2,3</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>2,17</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>2,47</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>3,96</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>13,95%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>12,69%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>11,92%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>12,76%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>29,88%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-6,1; 8,7</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-6,96; 9,24</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-7,15; 9,69</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-9,53; 10,67</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-5,47; 11,78</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>-27,36; 71,5</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-27,9; 69,93</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-29,99; 71,04</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-37,15; 78,01</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-31,7; 121,16</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>

--- a/data/trans_bre/P53_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P53_R-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -634,359 +643,235 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>14,02</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>11,71</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>6,06</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>3,05</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>23,9</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>40,11%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>32,33%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>13,14%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>5,98%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>125,96%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>14.0189242278038</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>10.32508553432427</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>10.83595443404487</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>6.015845325325903</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>20.15488050766992</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>0.4011465788105256</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>0.2677120419836593</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.2524693588788361</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>0.121062310818399</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>1.060506558882523</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-8,91; 37,89</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-12,29; 36,38</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-34,7; 29,0</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-32,25; 28,58</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>0,22; 52,56</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-20,24; 177,67</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-26,27; 184,07</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-49,23; 101,53</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>-48,46; 91,4</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>-4,75; 742,21</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-8.908501582194976</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-14.55196841091057</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-28.18267188442357</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-28.60464396376247</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-3.987943502796015</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>-0.2024178824020339</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.2881389998041488</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.4560136511555239</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>-0.4398439777780622</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>-0.1376483833051146</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>37.8853503427847</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>34.42475922802271</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>32.98940701356231</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>31.01233292387676</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>47.69437925706993</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>1.776740557113609</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>1.599720848512058</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>1.244220926064874</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>0.9871432267037736</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>6.391945856181599</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>6,97</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>6,63</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>5,29</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>5,22</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>2,09</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>37,8%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>33,06%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>28,33%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>25,99%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>10,96%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-6,65; 16,39</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-8,6; 16,88</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-8,62; 15,41</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-9,49; 15,76</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-15,1; 12,19</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-29,47; 138,33</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-31,43; 130,33</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-35,43; 121,46</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>-36,95; 120,35</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>-55,03; 102,85</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>6.969330444760585</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>5.052823252342581</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>4.574249419181747</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>3.878857935106683</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>1.755795559566958</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>0.3779706046349873</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>0.2484492538495708</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.2465715513722054</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>0.1905265939877718</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>0.09224111548052952</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-4,31</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-2,89</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-0,54</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>2,31</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-1,66</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-54,31%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>-33,01%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-7,15%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>42,78%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>-76,52%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-6.651813097400475</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-9.592662596180789</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-7.203606864113738</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-9.794010747814422</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-15.46222151438069</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.2946949369439837</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.3365401347005977</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.3166294443061625</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>-0.3761429819307219</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>-0.5589663466586416</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-15,25; 1,42</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-15,34; 3,69</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-12,08; 5,8</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-7,34; 8,48</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-6,28; 0,52</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-95,58; 53,11</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-88,06; 110,2</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-82,41; 219,0</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>-81,32; 508,02</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>16.394532168224</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>14.99858532264814</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>15.08317130157124</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>14.3466190325851</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>11.77918050479223</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>1.383307427558812</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>1.105045893861079</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>1.175542816411032</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>1.072799515615152</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>1.008369305890187</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -994,252 +879,243 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>-4.305096619603514</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-3.426011742027167</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-1.267126991821886</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>1.549144973594816</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>-2.127389563289291</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>-0.5431338753047176</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>-0.3338043241397309</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>-0.1526353639661121</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>0.2495030418334887</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <v>-0.7913370869338574</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-15.25044120353287</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-17.06315853758034</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-13.8440011969186</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-9.353506157095529</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>-7.733282950633822</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>-0.9558239435532395</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-0.8663633911899424</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.8257977960766344</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>-0.809620143837906</v>
+      </c>
+      <c r="L11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>1.415730648934852</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>4.323883443677028</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>5.725624866886152</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>7.957803487871744</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>0.5705941432401791</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>0.5311038917398386</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>1.203366828993616</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>2.178213512550375</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>4.198204197379969</v>
+      </c>
+      <c r="L12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>2,32</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>2,3</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>2,17</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>2,47</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>3,96</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>13,95%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>12,69%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>11,92%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>12,76%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>29,88%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-6,1; 8,7</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-6,96; 9,24</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-7,15; 9,69</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-9,53; 10,67</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-5,47; 11,78</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-27,36; 71,5</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-27,9; 69,93</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-29,99; 71,04</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>-37,15; 78,01</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>-31,7; 121,16</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>2.32066795136838</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>1.531000342450012</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>2.534481136682603</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>2.33977976005923</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>3.049185439704846</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>0.1394732286523775</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.0807053928856849</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.1417841902491832</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>0.1203827096660448</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>0.2261729850010048</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-6.098237022894923</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-7.801113079047954</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-6.033411434228793</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-8.898809713335606</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>-5.930854200346494</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.2735585473785502</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.3128707349074293</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.2600127305975287</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>-0.3479417244380351</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>-0.3330057151628094</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>8.704550161070598</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>8.748925887446063</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>9.69310517795833</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>10.60125854982901</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>10.64471028054146</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>0.715039436996969</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>0.6321400318225366</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.7228347979298539</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>0.753809428957892</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>1.074304703831322</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
